--- a/Stats/NUMBEO_Crime_and_Safety_Index.xlsx
+++ b/Stats/NUMBEO_Crime_and_Safety_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="396">
   <si>
     <t>Rank</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Safety Index</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Pietermaritzburg, South Africa</t>
@@ -1556,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>82.2</v>
@@ -1595,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>82</v>
@@ -1609,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>81.40000000000001</v>
@@ -1623,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>80.8</v>
@@ -1637,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>80.7</v>
@@ -1651,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>80.5</v>
@@ -1665,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>79.40000000000001</v>
@@ -1679,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>78.3</v>
@@ -1693,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>77.90000000000001</v>
@@ -1707,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>76.8</v>
@@ -1721,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>76.3</v>
@@ -1735,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>75.7</v>
@@ -1749,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>75.7</v>
@@ -1763,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>75.3</v>
@@ -1777,7 +1780,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>74.40000000000001</v>
@@ -1791,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>73.59999999999999</v>
@@ -1805,7 +1808,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>73</v>
@@ -1819,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>72.40000000000001</v>
@@ -1833,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>72.2</v>
@@ -1847,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>71.7</v>
@@ -1861,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>71.3</v>
@@ -1875,7 +1878,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>70.7</v>
@@ -1889,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>70.2</v>
@@ -1903,7 +1906,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>70.09999999999999</v>
@@ -1917,7 +1920,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>69.7</v>
@@ -1931,7 +1934,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>69.2</v>
@@ -1945,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>69.09999999999999</v>
@@ -1959,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>68.59999999999999</v>
@@ -1973,7 +1976,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>68.3</v>
@@ -1987,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>67.7</v>
@@ -2001,7 +2004,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>67.5</v>
@@ -2015,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>67.40000000000001</v>
@@ -2029,7 +2032,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>67.3</v>
@@ -2043,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>67</v>
@@ -2057,7 +2060,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>66.90000000000001</v>
@@ -2071,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>66.8</v>
@@ -2085,7 +2088,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>66.5</v>
@@ -2099,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>66.09999999999999</v>
@@ -2113,7 +2116,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>66.09999999999999</v>
@@ -2127,7 +2130,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>66</v>
@@ -2141,7 +2144,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>66</v>
@@ -2155,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>66</v>
@@ -2169,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>65.8</v>
@@ -2183,7 +2186,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>64.7</v>
@@ -2197,7 +2200,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>64.7</v>
@@ -2211,7 +2214,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>64.59999999999999</v>
@@ -2225,7 +2228,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>64.5</v>
@@ -2239,7 +2242,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>64.09999999999999</v>
@@ -2253,7 +2256,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>64</v>
@@ -2267,7 +2270,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>63.3</v>
@@ -2281,7 +2284,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>63.1</v>
@@ -2295,7 +2298,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>63.1</v>
@@ -2309,7 +2312,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>62.8</v>
@@ -2323,7 +2326,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>62.3</v>
@@ -2337,7 +2340,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>62.2</v>
@@ -2351,7 +2354,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>62.2</v>
@@ -2365,7 +2368,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>61.9</v>
@@ -2379,7 +2382,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>61.7</v>
@@ -2393,7 +2396,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>61.5</v>
@@ -2407,7 +2410,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>61.3</v>
@@ -2421,7 +2424,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>61.2</v>
@@ -2435,7 +2438,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>61.2</v>
@@ -2449,7 +2452,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>61.2</v>
@@ -2463,7 +2466,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>61.1</v>
@@ -2477,7 +2480,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>60.6</v>
@@ -2491,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>60.5</v>
@@ -2505,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>60.4</v>
@@ -2519,7 +2522,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>60.3</v>
@@ -2533,7 +2536,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>60.3</v>
@@ -2547,7 +2550,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>60.3</v>
@@ -2561,7 +2564,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>60.2</v>
@@ -2575,7 +2578,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>59.7</v>
@@ -2589,7 +2592,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>59.6</v>
@@ -2603,7 +2606,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>59</v>
@@ -2617,7 +2620,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>58.7</v>
@@ -2631,7 +2634,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>58.6</v>
@@ -2645,7 +2648,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>58.4</v>
@@ -2659,7 +2662,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>58.3</v>
@@ -2673,7 +2676,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>58.1</v>
@@ -2687,7 +2690,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>58.1</v>
@@ -2701,7 +2704,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>57.2</v>
@@ -2715,7 +2718,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>57.2</v>
@@ -2729,7 +2732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>57.2</v>
@@ -2743,7 +2746,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>57.1</v>
@@ -2757,7 +2760,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>56.9</v>
@@ -2771,7 +2774,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>56.7</v>
@@ -2785,7 +2788,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>56.6</v>
@@ -2799,7 +2802,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>56.5</v>
@@ -2813,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>56.4</v>
@@ -2827,7 +2830,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>56.1</v>
@@ -2841,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>56</v>
@@ -2855,7 +2858,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>55.9</v>
@@ -2869,7 +2872,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>55.8</v>
@@ -2883,7 +2886,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>55.8</v>
@@ -2897,7 +2900,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>55.8</v>
@@ -2911,7 +2914,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>55.6</v>
@@ -2925,7 +2928,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>55.5</v>
@@ -2939,7 +2942,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>55.4</v>
@@ -2953,7 +2956,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>55.4</v>
@@ -2967,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>55.3</v>
@@ -2981,7 +2984,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>55.3</v>
@@ -2995,7 +2998,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>55.3</v>
@@ -3009,7 +3012,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>55.2</v>
@@ -3023,7 +3026,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>55.2</v>
@@ -3037,7 +3040,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106">
         <v>55.1</v>
@@ -3051,7 +3054,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107">
         <v>55.1</v>
@@ -3065,7 +3068,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108">
         <v>54.8</v>
@@ -3079,7 +3082,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109">
         <v>54.6</v>
@@ -3093,7 +3096,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110">
         <v>54.4</v>
@@ -3107,7 +3110,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>54.4</v>
@@ -3121,7 +3124,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112">
         <v>54.2</v>
@@ -3135,7 +3138,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>54</v>
@@ -3149,7 +3152,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>53.9</v>
@@ -3163,7 +3166,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>53.9</v>
@@ -3177,7 +3180,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>53.7</v>
@@ -3191,7 +3194,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117">
         <v>53.6</v>
@@ -3205,7 +3208,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>53.5</v>
@@ -3219,7 +3222,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119">
         <v>53.4</v>
@@ -3233,7 +3236,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120">
         <v>53.3</v>
@@ -3247,7 +3250,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121">
         <v>53.3</v>
@@ -3261,7 +3264,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>53.1</v>
@@ -3275,7 +3278,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123">
         <v>52.9</v>
@@ -3289,7 +3292,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124">
         <v>52.8</v>
@@ -3303,7 +3306,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125">
         <v>52.6</v>
@@ -3317,7 +3320,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126">
         <v>52.4</v>
@@ -3331,7 +3334,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127">
         <v>52</v>
@@ -3345,7 +3348,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128">
         <v>52</v>
@@ -3359,7 +3362,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>51.7</v>
@@ -3373,7 +3376,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130">
         <v>51.6</v>
@@ -3387,7 +3390,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <v>51.4</v>
@@ -3401,7 +3404,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>51.3</v>
@@ -3415,7 +3418,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>51.2</v>
@@ -3429,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>51.2</v>
@@ -3443,7 +3446,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>50.9</v>
@@ -3457,7 +3460,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>50.8</v>
@@ -3471,7 +3474,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>50.8</v>
@@ -3485,7 +3488,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>50.8</v>
@@ -3499,7 +3502,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>50.7</v>
@@ -3513,7 +3516,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140">
         <v>50.6</v>
@@ -3527,7 +3530,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141">
         <v>50.5</v>
@@ -3541,7 +3544,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142">
         <v>50.5</v>
@@ -3555,7 +3558,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143">
         <v>50.3</v>
@@ -3569,7 +3572,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>50.2</v>
@@ -3583,7 +3586,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>50.1</v>
@@ -3597,7 +3600,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146">
         <v>49.9</v>
@@ -3611,7 +3614,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147">
         <v>49.6</v>
@@ -3625,7 +3628,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148">
         <v>49.6</v>
@@ -3639,7 +3642,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149">
         <v>49.5</v>
@@ -3653,7 +3656,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150">
         <v>49.5</v>
@@ -3667,7 +3670,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151">
         <v>49.4</v>
@@ -3681,7 +3684,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152">
         <v>49.2</v>
@@ -3695,7 +3698,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153">
         <v>49</v>
@@ -3709,7 +3712,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154">
         <v>49</v>
@@ -3723,7 +3726,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155">
         <v>49</v>
@@ -3737,7 +3740,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156">
         <v>48.7</v>
@@ -3751,7 +3754,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157">
         <v>48.6</v>
@@ -3765,7 +3768,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158">
         <v>48.3</v>
@@ -3779,7 +3782,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159">
         <v>48.2</v>
@@ -3793,7 +3796,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160">
         <v>48.2</v>
@@ -3807,7 +3810,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161">
         <v>48.1</v>
@@ -3821,7 +3824,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162">
         <v>48.1</v>
@@ -3835,7 +3838,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163">
         <v>48.1</v>
@@ -3849,7 +3852,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164">
         <v>48</v>
@@ -3863,7 +3866,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165">
         <v>47.9</v>
@@ -3877,7 +3880,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166">
         <v>47.8</v>
@@ -3891,7 +3894,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167">
         <v>47.7</v>
@@ -3905,7 +3908,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168">
         <v>47.7</v>
@@ -3919,7 +3922,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>47.5</v>
@@ -3933,7 +3936,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170">
         <v>47.3</v>
@@ -3947,7 +3950,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171">
         <v>47.2</v>
@@ -3961,7 +3964,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>47.2</v>
@@ -3975,7 +3978,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>46.9</v>
@@ -3989,7 +3992,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174">
         <v>46.8</v>
@@ -4003,7 +4006,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175">
         <v>46.8</v>
@@ -4017,7 +4020,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176">
         <v>46.6</v>
@@ -4031,7 +4034,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177">
         <v>46.5</v>
@@ -4045,7 +4048,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178">
         <v>46.4</v>
@@ -4059,7 +4062,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179">
         <v>46.4</v>
@@ -4073,7 +4076,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180">
         <v>46.2</v>
@@ -4087,7 +4090,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181">
         <v>46.2</v>
@@ -4101,7 +4104,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182">
         <v>46.1</v>
@@ -4115,7 +4118,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183">
         <v>46.1</v>
@@ -4129,7 +4132,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>46</v>
@@ -4143,7 +4146,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185">
         <v>46</v>
@@ -4157,7 +4160,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186">
         <v>45.8</v>
@@ -4171,7 +4174,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187">
         <v>45.7</v>
@@ -4185,7 +4188,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188">
         <v>45.6</v>
@@ -4199,7 +4202,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189">
         <v>45.5</v>
@@ -4213,7 +4216,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190">
         <v>45.4</v>
@@ -4227,7 +4230,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191">
         <v>45.1</v>
@@ -4241,7 +4244,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192">
         <v>45.1</v>
@@ -4255,7 +4258,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193">
         <v>45.1</v>
@@ -4269,7 +4272,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194">
         <v>45.1</v>
@@ -4283,7 +4286,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195">
         <v>44.8</v>
@@ -4297,7 +4300,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196">
         <v>44.7</v>
@@ -4311,7 +4314,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197">
         <v>44.7</v>
@@ -4325,7 +4328,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198">
         <v>44.2</v>
@@ -4339,7 +4342,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199">
         <v>44.2</v>
@@ -4353,7 +4356,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200">
         <v>44.1</v>
@@ -4367,7 +4370,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201">
         <v>43.9</v>
@@ -4381,7 +4384,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202">
         <v>43.6</v>
@@ -4395,7 +4398,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203">
         <v>43.6</v>
@@ -4409,7 +4412,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204">
         <v>43.5</v>
@@ -4423,7 +4426,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205">
         <v>43.4</v>
@@ -4437,7 +4440,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206">
         <v>43.3</v>
@@ -4451,7 +4454,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207">
         <v>43.2</v>
@@ -4465,7 +4468,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208">
         <v>43.2</v>
@@ -4479,7 +4482,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209">
         <v>42.9</v>
@@ -4493,7 +4496,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210">
         <v>42.8</v>
@@ -4507,7 +4510,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211">
         <v>42.7</v>
@@ -4521,7 +4524,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212">
         <v>42.7</v>
@@ -4535,7 +4538,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213">
         <v>42.6</v>
@@ -4549,7 +4552,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214">
         <v>42.3</v>
@@ -4563,7 +4566,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215">
         <v>42.3</v>
@@ -4577,7 +4580,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C216">
         <v>42.2</v>
@@ -4591,7 +4594,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C217">
         <v>42</v>
@@ -4605,7 +4608,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218">
         <v>41.9</v>
@@ -4619,7 +4622,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C219">
         <v>41.8</v>
@@ -4633,7 +4636,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C220">
         <v>41.8</v>
@@ -4647,7 +4650,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221">
         <v>41.3</v>
@@ -4661,7 +4664,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222">
         <v>40.9</v>
@@ -4675,7 +4678,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223">
         <v>40.4</v>
@@ -4689,7 +4692,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224">
         <v>40.2</v>
@@ -4703,7 +4706,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C225">
         <v>40</v>
@@ -4717,7 +4720,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C226">
         <v>40</v>
@@ -4731,7 +4734,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C227">
         <v>39.9</v>
@@ -4745,7 +4748,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C228">
         <v>39.9</v>
@@ -4759,7 +4762,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C229">
         <v>39.9</v>
@@ -4773,7 +4776,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230">
         <v>39.8</v>
@@ -4787,7 +4790,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C231">
         <v>39.8</v>
@@ -4801,7 +4804,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232">
         <v>39.6</v>
@@ -4815,7 +4818,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C233">
         <v>39.4</v>
@@ -4829,7 +4832,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234">
         <v>39.3</v>
@@ -4843,7 +4846,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C235">
         <v>39.1</v>
@@ -4857,7 +4860,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236">
         <v>39.1</v>
@@ -4871,7 +4874,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237">
         <v>39.1</v>
@@ -4885,7 +4888,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238">
         <v>38.9</v>
@@ -4899,7 +4902,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C239">
         <v>38.8</v>
@@ -4913,7 +4916,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240">
         <v>38.7</v>
@@ -4927,7 +4930,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C241">
         <v>38.5</v>
@@ -4941,7 +4944,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242">
         <v>38.3</v>
@@ -4955,7 +4958,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243">
         <v>38.2</v>
@@ -4969,7 +4972,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C244">
         <v>38</v>
@@ -4983,7 +4986,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C245">
         <v>38</v>
@@ -4997,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C246">
         <v>37.9</v>
@@ -5011,7 +5014,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C247">
         <v>37.9</v>
@@ -5025,7 +5028,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C248">
         <v>37.8</v>
@@ -5039,7 +5042,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C249">
         <v>37.7</v>
@@ -5053,7 +5056,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C250">
         <v>37.6</v>
@@ -5067,7 +5070,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251">
         <v>37.4</v>
@@ -5081,7 +5084,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C252">
         <v>37</v>
@@ -5095,7 +5098,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C253">
         <v>36.9</v>
@@ -5109,7 +5112,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C254">
         <v>36.8</v>
@@ -5123,7 +5126,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C255">
         <v>36.8</v>
@@ -5137,7 +5140,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C256">
         <v>36.5</v>
@@ -5151,7 +5154,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C257">
         <v>36.4</v>
@@ -5165,7 +5168,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C258">
         <v>36.4</v>
@@ -5179,7 +5182,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C259">
         <v>36.2</v>
@@ -5193,7 +5196,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C260">
         <v>36.2</v>
@@ -5207,7 +5210,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261">
         <v>35.9</v>
@@ -5221,7 +5224,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C262">
         <v>35.7</v>
@@ -5235,7 +5238,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C263">
         <v>35.7</v>
@@ -5249,7 +5252,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C264">
         <v>35.4</v>
@@ -5263,7 +5266,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265">
         <v>34.9</v>
@@ -5277,7 +5280,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C266">
         <v>34.8</v>
@@ -5291,7 +5294,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C267">
         <v>34.7</v>
@@ -5305,7 +5308,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C268">
         <v>34.6</v>
@@ -5319,7 +5322,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C269">
         <v>34.6</v>
@@ -5333,7 +5336,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C270">
         <v>34.3</v>
@@ -5347,7 +5350,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C271">
         <v>34.2</v>
@@ -5361,7 +5364,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C272">
         <v>34.2</v>
@@ -5375,7 +5378,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C273">
         <v>34.1</v>
@@ -5389,7 +5392,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C274">
         <v>34.1</v>
@@ -5403,7 +5406,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C275">
         <v>34</v>
@@ -5417,7 +5420,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C276">
         <v>33.9</v>
@@ -5431,7 +5434,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C277">
         <v>33.4</v>
@@ -5445,7 +5448,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C278">
         <v>33.2</v>
@@ -5459,7 +5462,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C279">
         <v>33.2</v>
@@ -5473,7 +5476,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C280">
         <v>33</v>
@@ -5487,7 +5490,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C281">
         <v>33</v>
@@ -5501,7 +5504,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C282">
         <v>32.9</v>
@@ -5515,7 +5518,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C283">
         <v>32.9</v>
@@ -5529,7 +5532,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C284">
         <v>32.9</v>
@@ -5543,7 +5546,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C285">
         <v>32.8</v>
@@ -5557,7 +5560,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C286">
         <v>32.6</v>
@@ -5571,7 +5574,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C287">
         <v>32.5</v>
@@ -5585,7 +5588,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C288">
         <v>32.5</v>
@@ -5599,7 +5602,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289">
         <v>32.4</v>
@@ -5613,7 +5616,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C290">
         <v>32.1</v>
@@ -5627,7 +5630,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291">
         <v>31.8</v>
@@ -5641,7 +5644,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292">
         <v>31.8</v>
@@ -5655,7 +5658,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293">
         <v>31.7</v>
@@ -5669,7 +5672,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C294">
         <v>31.5</v>
@@ -5683,7 +5686,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C295">
         <v>31.3</v>
@@ -5697,7 +5700,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C296">
         <v>31.2</v>
@@ -5711,7 +5714,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C297">
         <v>31.1</v>
@@ -5725,7 +5728,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C298">
         <v>31</v>
@@ -5739,7 +5742,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C299">
         <v>31</v>
@@ -5753,7 +5756,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C300">
         <v>30.8</v>
@@ -5767,7 +5770,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C301">
         <v>30.6</v>
@@ -5781,7 +5784,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C302">
         <v>30.5</v>
@@ -5795,7 +5798,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C303">
         <v>30.5</v>
@@ -5809,7 +5812,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C304">
         <v>30.4</v>
@@ -5823,7 +5826,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C305">
         <v>30.1</v>
@@ -5837,7 +5840,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C306">
         <v>29.8</v>
@@ -5851,7 +5854,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C307">
         <v>29.5</v>
@@ -5865,7 +5868,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C308">
         <v>29.5</v>
@@ -5879,7 +5882,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C309">
         <v>29.4</v>
@@ -5893,7 +5896,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C310">
         <v>29.2</v>
@@ -5907,7 +5910,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C311">
         <v>29.1</v>
@@ -5921,7 +5924,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C312">
         <v>28.9</v>
@@ -5935,7 +5938,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C313">
         <v>28.7</v>
@@ -5949,7 +5952,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C314">
         <v>28.6</v>
@@ -5963,7 +5966,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C315">
         <v>28.5</v>
@@ -5977,7 +5980,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C316">
         <v>28.2</v>
@@ -5991,7 +5994,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C317">
         <v>28.2</v>
@@ -6005,7 +6008,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C318">
         <v>28.1</v>
@@ -6019,7 +6022,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C319">
         <v>28.1</v>
@@ -6033,7 +6036,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C320">
         <v>27.9</v>
@@ -6047,7 +6050,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C321">
         <v>27.7</v>
@@ -6061,7 +6064,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C322">
         <v>27.6</v>
@@ -6075,7 +6078,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C323">
         <v>27.5</v>
@@ -6089,7 +6092,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C324">
         <v>27.3</v>
@@ -6103,7 +6106,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C325">
         <v>27.3</v>
@@ -6117,7 +6120,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C326">
         <v>27.2</v>
@@ -6131,7 +6134,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C327">
         <v>27.2</v>
@@ -6145,7 +6148,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C328">
         <v>27</v>
@@ -6159,7 +6162,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C329">
         <v>26.8</v>
@@ -6173,7 +6176,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330">
         <v>26.1</v>
@@ -6187,7 +6190,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C331">
         <v>26</v>
@@ -6201,7 +6204,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C332">
         <v>25.9</v>
@@ -6215,7 +6218,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C333">
         <v>25.8</v>
@@ -6229,7 +6232,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C334">
         <v>25.7</v>
@@ -6243,7 +6246,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C335">
         <v>25.7</v>
@@ -6257,7 +6260,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C336">
         <v>25.6</v>
@@ -6271,7 +6274,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C337">
         <v>25.5</v>
@@ -6285,7 +6288,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C338">
         <v>25.5</v>
@@ -6299,7 +6302,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C339">
         <v>25.4</v>
@@ -6313,7 +6316,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C340">
         <v>25.4</v>
@@ -6327,7 +6330,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C341">
         <v>25.3</v>
@@ -6341,7 +6344,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C342">
         <v>25.2</v>
@@ -6355,7 +6358,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343">
         <v>25.1</v>
@@ -6369,7 +6372,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C344">
         <v>24.9</v>
@@ -6383,7 +6386,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C345">
         <v>24.9</v>
@@ -6397,7 +6400,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C346">
         <v>24.9</v>
@@ -6411,7 +6414,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C347">
         <v>24.8</v>
@@ -6425,7 +6428,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C348">
         <v>24.7</v>
@@ -6439,7 +6442,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C349">
         <v>24.6</v>
@@ -6453,7 +6456,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C350">
         <v>24.5</v>
@@ -6467,7 +6470,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C351">
         <v>24.5</v>
@@ -6481,7 +6484,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C352">
         <v>24.5</v>
@@ -6495,7 +6498,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C353">
         <v>24.2</v>
@@ -6509,7 +6512,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C354">
         <v>24</v>
@@ -6523,7 +6526,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C355">
         <v>23.6</v>
@@ -6537,7 +6540,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C356">
         <v>22.9</v>
@@ -6551,7 +6554,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C357">
         <v>22.6</v>
@@ -6565,7 +6568,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C358">
         <v>22.5</v>
@@ -6579,7 +6582,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C359">
         <v>22.4</v>
@@ -6593,7 +6596,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C360">
         <v>22.3</v>
@@ -6607,7 +6610,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C361">
         <v>22.1</v>
@@ -6621,7 +6624,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C362">
         <v>22</v>
@@ -6635,7 +6638,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C363">
         <v>21.9</v>
@@ -6649,7 +6652,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C364">
         <v>21.9</v>
@@ -6663,7 +6666,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C365">
         <v>21.7</v>
@@ -6677,7 +6680,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C366">
         <v>21.6</v>
@@ -6691,7 +6694,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C367">
         <v>21.4</v>
@@ -6705,7 +6708,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C368">
         <v>21.4</v>
@@ -6719,7 +6722,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C369">
         <v>21.4</v>
@@ -6733,7 +6736,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C370">
         <v>21.1</v>
@@ -6747,7 +6750,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C371">
         <v>20.9</v>
@@ -6761,7 +6764,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C372">
         <v>20.7</v>
@@ -6775,7 +6778,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C373">
         <v>20.5</v>
@@ -6789,7 +6792,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C374">
         <v>18.8</v>
@@ -6803,7 +6806,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C375">
         <v>16.5</v>
@@ -6817,7 +6820,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C376">
         <v>16.2</v>
@@ -6831,7 +6834,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C377">
         <v>16.2</v>
@@ -6845,7 +6848,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C378">
         <v>16.1</v>
@@ -6859,7 +6862,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C379">
         <v>15.7</v>
@@ -6873,7 +6876,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C380">
         <v>14.7</v>
@@ -6887,7 +6890,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C381">
         <v>11.4</v>
@@ -6898,7 +6901,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="B382" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C382">
         <v>35.36</v>
@@ -6909,7 +6912,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="B383" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C383">
         <v>39.89</v>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="B384" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C384">
         <v>46.26</v>
@@ -6929,9 +6932,9 @@
         <v>53.74</v>
       </c>
     </row>
-    <row r="385" spans="2:4">
+    <row r="385" spans="1:4">
       <c r="B385" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C385">
         <v>32.51</v>
@@ -6940,9 +6943,9 @@
         <v>67.48999999999999</v>
       </c>
     </row>
-    <row r="386" spans="2:4">
+    <row r="386" spans="1:4">
       <c r="B386" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C386">
         <v>33.53</v>
@@ -6951,9 +6954,9 @@
         <v>66.47</v>
       </c>
     </row>
-    <row r="387" spans="2:4">
+    <row r="387" spans="1:4">
       <c r="B387" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C387">
         <v>30.85</v>
@@ -6962,9 +6965,9 @@
         <v>69.15000000000001</v>
       </c>
     </row>
-    <row r="388" spans="2:4">
+    <row r="388" spans="1:4">
       <c r="B388" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C388">
         <v>46.52</v>
@@ -6973,9 +6976,9 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="389" spans="2:4">
+    <row r="389" spans="1:4">
       <c r="B389" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C389">
         <v>67.37</v>
@@ -6984,9 +6987,9 @@
         <v>32.63</v>
       </c>
     </row>
-    <row r="390" spans="2:4">
+    <row r="390" spans="1:4">
       <c r="B390" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C390">
         <v>48.19</v>
@@ -6995,9 +6998,9 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="391" spans="2:4">
+    <row r="391" spans="1:4">
       <c r="B391" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C391">
         <v>32.16</v>
@@ -7006,14 +7009,168 @@
         <v>67.84</v>
       </c>
     </row>
-    <row r="392" spans="2:4">
+    <row r="392" spans="1:4">
       <c r="B392" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C392">
         <v>55.86</v>
       </c>
       <c r="D392">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>385</v>
+      </c>
+      <c r="C393">
+        <v>35.36</v>
+      </c>
+      <c r="D393">
+        <v>64.64</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>386</v>
+      </c>
+      <c r="C394">
+        <v>39.89</v>
+      </c>
+      <c r="D394">
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" t="s">
+        <v>387</v>
+      </c>
+      <c r="C395">
+        <v>46.26</v>
+      </c>
+      <c r="D395">
+        <v>53.74</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" t="s">
+        <v>388</v>
+      </c>
+      <c r="C396">
+        <v>32.51</v>
+      </c>
+      <c r="D396">
+        <v>67.48999999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>389</v>
+      </c>
+      <c r="C397">
+        <v>33.53</v>
+      </c>
+      <c r="D397">
+        <v>66.47</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" t="s">
+        <v>390</v>
+      </c>
+      <c r="C398">
+        <v>30.85</v>
+      </c>
+      <c r="D398">
+        <v>69.15000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>391</v>
+      </c>
+      <c r="C399">
+        <v>46.52</v>
+      </c>
+      <c r="D399">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>392</v>
+      </c>
+      <c r="C400">
+        <v>67.37</v>
+      </c>
+      <c r="D400">
+        <v>32.63</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>393</v>
+      </c>
+      <c r="C401">
+        <v>48.19</v>
+      </c>
+      <c r="D401">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>394</v>
+      </c>
+      <c r="C402">
+        <v>32.16</v>
+      </c>
+      <c r="D402">
+        <v>67.84</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403" t="s">
+        <v>395</v>
+      </c>
+      <c r="C403">
+        <v>55.86</v>
+      </c>
+      <c r="D403">
         <v>44.14</v>
       </c>
     </row>
